--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="73">
   <si>
     <t>Service</t>
   </si>
@@ -645,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D30" sqref="D30:D31"/>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="75">
   <si>
     <t>Service</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>$273.68</t>
+  </si>
+  <si>
+    <t>$549.37</t>
+  </si>
+  <si>
+    <t>$305.85</t>
   </si>
 </sst>
 </file>
@@ -1294,10 +1300,10 @@
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -1315,10 +1321,10 @@
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G31" s="7"/>
     </row>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3729" uniqueCount="75">
   <si>
     <t>Service</t>
   </si>
@@ -1300,10 +1300,10 @@
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -1321,10 +1321,10 @@
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G31" s="7"/>
     </row>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3729" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3849" uniqueCount="75">
   <si>
     <t>Service</t>
   </si>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3849" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3909" uniqueCount="75">
   <si>
     <t>Service</t>
   </si>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3909" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4121" uniqueCount="75">
   <si>
     <t>Service</t>
   </si>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4121" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4241" uniqueCount="96">
   <si>
     <t>Service</t>
   </si>
@@ -239,6 +239,69 @@
   </si>
   <si>
     <t>$305.85</t>
+  </si>
+  <si>
+    <t>$20.36</t>
+  </si>
+  <si>
+    <t>$25.91</t>
+  </si>
+  <si>
+    <t>$30.67</t>
+  </si>
+  <si>
+    <t>$43.09</t>
+  </si>
+  <si>
+    <t>$56.58</t>
+  </si>
+  <si>
+    <t>$70.06</t>
+  </si>
+  <si>
+    <t>$82.93</t>
+  </si>
+  <si>
+    <t>$236.93</t>
+  </si>
+  <si>
+    <t>$16.92</t>
+  </si>
+  <si>
+    <t>$21.41</t>
+  </si>
+  <si>
+    <t>$39.66</t>
+  </si>
+  <si>
+    <t>$53.14</t>
+  </si>
+  <si>
+    <t>$13.48</t>
+  </si>
+  <si>
+    <t>$31.73</t>
+  </si>
+  <si>
+    <t>$52.08</t>
+  </si>
+  <si>
+    <t>$40.71</t>
+  </si>
+  <si>
+    <t>$61.07</t>
+  </si>
+  <si>
+    <t>$85.92</t>
+  </si>
+  <si>
+    <t>$113.15</t>
+  </si>
+  <si>
+    <t>$160.21</t>
+  </si>
+  <si>
+    <t>$327.30</t>
   </si>
 </sst>
 </file>
@@ -712,10 +775,10 @@
         <v>19.04</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G2" s="7"/>
     </row>
@@ -733,10 +796,10 @@
         <v>24.32</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G3" s="7"/>
     </row>
@@ -754,10 +817,10 @@
         <v>28.55</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G4" s="7"/>
     </row>
@@ -775,10 +838,10 @@
         <v>40.19</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -796,10 +859,10 @@
         <v>52.88</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -817,10 +880,10 @@
         <v>65.569999999999993</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -838,10 +901,10 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7"/>
     </row>
@@ -859,10 +922,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -880,10 +943,10 @@
         <v>15.86</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7"/>
     </row>
@@ -901,10 +964,10 @@
         <v>20.09</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7"/>
     </row>
@@ -922,10 +985,10 @@
         <v>24.32</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G12" s="7"/>
     </row>
@@ -943,10 +1006,10 @@
         <v>37.01</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7"/>
     </row>
@@ -964,10 +1027,10 @@
         <v>49.7</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G14" s="7"/>
     </row>
@@ -985,10 +1048,10 @@
         <v>65.569999999999993</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -1006,10 +1069,10 @@
         <v>12.69</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G16" s="7"/>
     </row>
@@ -1027,10 +1090,10 @@
         <v>15.86</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G17" s="7"/>
     </row>
@@ -1048,10 +1111,10 @@
         <v>19.04</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7"/>
     </row>
@@ -1069,10 +1132,10 @@
         <v>29.61</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G19" s="7"/>
     </row>
@@ -1090,10 +1153,10 @@
         <v>40.19</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G20" s="7"/>
     </row>
@@ -1111,10 +1174,10 @@
         <v>48.65</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G21" s="7"/>
     </row>
@@ -1132,10 +1195,10 @@
         <v>38.07</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G22" s="7"/>
     </row>
@@ -1153,10 +1216,10 @@
         <v>48.65</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G23" s="7"/>
     </row>
@@ -1174,10 +1237,10 @@
         <v>57.11</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G24" s="7"/>
     </row>
@@ -1195,10 +1258,10 @@
         <v>80.37</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G25" s="7"/>
     </row>
@@ -1216,10 +1279,10 @@
         <v>105.75</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G26" s="7"/>
     </row>
@@ -1237,10 +1300,10 @@
         <v>105.75</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G27" s="7"/>
     </row>
@@ -1258,10 +1321,10 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G28" s="7"/>
     </row>
@@ -1279,10 +1342,10 @@
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G29" s="7"/>
     </row>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExRateVerification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4241" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4301" uniqueCount="96">
   <si>
     <t>Service</t>
   </si>
